--- a/public/AntalPriceData.xlsx
+++ b/public/AntalPriceData.xlsx
@@ -10,7 +10,7 @@
     <sheet name="RRP 2026" sheetId="1" r:id="rId1"/>
     <sheet name="ON REQUEST" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8102" uniqueCount="3133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8098" uniqueCount="3133">
   <si>
     <t>Brand</t>
   </si>
@@ -7041,7 +7041,7 @@
     <t>POWERED LINE DRIVER SIZE 700 + MOTOR 700W 24V</t>
   </si>
   <si>
-    <t>LD700/48</t>
+    <t>LD700-48V</t>
   </si>
   <si>
     <t>POWERED LINE DRIVER SIZE 700 + MOTOR 700W 48V</t>
@@ -10412,10 +10412,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M1574"/>
+  <dimension ref="A1:M1573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A1558" workbookViewId="0">
+      <selection activeCell="D1575" sqref="D1575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -34030,23 +34030,23 @@
       </c>
       <c r="H576" s="9"/>
       <c r="I576" s="9">
-        <f>G576*0.47</f>
+        <f t="shared" si="40"/>
         <v>91.5874524</v>
       </c>
       <c r="J576" s="9">
-        <f>G576*0.5</f>
+        <f t="shared" si="41"/>
         <v>97.43346</v>
       </c>
       <c r="K576" s="9">
-        <f>G576*0.55</f>
+        <f t="shared" si="42"/>
         <v>107.176806</v>
       </c>
       <c r="L576" s="9">
-        <f>G576*0.7</f>
+        <f t="shared" si="43"/>
         <v>136.406844</v>
       </c>
       <c r="M576" s="9">
-        <f>G576*0.85</f>
+        <f t="shared" si="44"/>
         <v>165.636882</v>
       </c>
     </row>
@@ -34071,23 +34071,23 @@
       </c>
       <c r="H577" s="9"/>
       <c r="I577" s="9">
-        <f>G577*0.47</f>
+        <f t="shared" si="40"/>
         <v>35.45163</v>
       </c>
       <c r="J577" s="9">
-        <f>G577*0.5</f>
+        <f t="shared" si="41"/>
         <v>37.7145</v>
       </c>
       <c r="K577" s="9">
-        <f>G577*0.55</f>
+        <f t="shared" si="42"/>
         <v>41.48595</v>
       </c>
       <c r="L577" s="9">
-        <f>G577*0.7</f>
+        <f t="shared" si="43"/>
         <v>52.8003</v>
       </c>
       <c r="M577" s="9">
-        <f>G577*0.85</f>
+        <f t="shared" si="44"/>
         <v>64.11465</v>
       </c>
     </row>
@@ -34112,23 +34112,23 @@
       </c>
       <c r="H578" s="9"/>
       <c r="I578" s="9">
-        <f>G578*0.47</f>
+        <f t="shared" si="40"/>
         <v>82.4433768</v>
       </c>
       <c r="J578" s="9">
-        <f>G578*0.5</f>
+        <f t="shared" si="41"/>
         <v>87.70572</v>
       </c>
       <c r="K578" s="9">
-        <f>G578*0.55</f>
+        <f t="shared" si="42"/>
         <v>96.476292</v>
       </c>
       <c r="L578" s="9">
-        <f>G578*0.7</f>
+        <f t="shared" si="43"/>
         <v>122.788008</v>
       </c>
       <c r="M578" s="9">
-        <f>G578*0.85</f>
+        <f t="shared" si="44"/>
         <v>149.099724</v>
       </c>
     </row>
@@ -74647,166 +74647,125 @@
       </c>
     </row>
     <row r="1571" ht="27" spans="2:13">
-      <c r="B1571" s="11">
-        <v>6320</v>
+      <c r="B1571" s="11" t="s">
+        <v>3120</v>
       </c>
       <c r="C1571" s="4" t="s">
-        <v>1371</v>
+        <v>3121</v>
       </c>
       <c r="D1571" s="4" t="s">
-        <v>1371</v>
+        <v>3121</v>
       </c>
       <c r="E1571" s="4" t="s">
-        <v>1371</v>
+        <v>3121</v>
       </c>
       <c r="F1571" s="4" t="s">
-        <v>1371</v>
+        <v>3121</v>
       </c>
       <c r="G1571" s="5">
-        <f>607.9*1.04</f>
-        <v>632.216</v>
-      </c>
-      <c r="I1571" s="9">
-        <f t="shared" si="120"/>
-        <v>297.14152</v>
-      </c>
-      <c r="J1571" s="9">
-        <f t="shared" si="121"/>
-        <v>316.108</v>
-      </c>
-      <c r="K1571" s="9">
-        <f t="shared" si="122"/>
-        <v>347.7188</v>
-      </c>
-      <c r="L1571" s="9">
-        <f t="shared" si="123"/>
-        <v>442.5512</v>
-      </c>
-      <c r="M1571" s="9">
-        <f t="shared" si="124"/>
-        <v>537.3836</v>
-      </c>
-    </row>
-    <row r="1572" ht="27" spans="2:13">
-      <c r="B1572" s="11" t="s">
-        <v>3120</v>
-      </c>
-      <c r="C1572" s="4" t="s">
-        <v>3121</v>
-      </c>
-      <c r="D1572" s="4" t="s">
-        <v>3121</v>
-      </c>
-      <c r="E1572" s="4" t="s">
-        <v>3121</v>
-      </c>
-      <c r="F1572" s="4" t="s">
-        <v>3121</v>
-      </c>
-      <c r="G1572" s="5">
         <f>1360.15*1.04</f>
         <v>1414.556</v>
       </c>
-      <c r="I1572" s="9">
-        <f t="shared" si="120"/>
+      <c r="I1571" s="9">
+        <f>G1571*0.47</f>
         <v>664.84132</v>
       </c>
-      <c r="J1572" s="9">
-        <f t="shared" si="121"/>
+      <c r="J1571" s="9">
+        <f>G1571*0.5</f>
         <v>707.278</v>
       </c>
-      <c r="K1572" s="9">
-        <f t="shared" si="122"/>
+      <c r="K1571" s="9">
+        <f>G1571*0.55</f>
         <v>778.0058</v>
       </c>
-      <c r="L1572" s="9">
-        <f t="shared" si="123"/>
+      <c r="L1571" s="9">
+        <f>G1571*0.7</f>
         <v>990.1892</v>
       </c>
-      <c r="M1572" s="9">
-        <f t="shared" si="124"/>
+      <c r="M1571" s="9">
+        <f>G1571*0.85</f>
         <v>1202.3726</v>
       </c>
     </row>
-    <row r="1573" ht="27" spans="2:13">
-      <c r="B1573" t="s">
+    <row r="1572" ht="27" spans="2:13">
+      <c r="B1572" t="s">
         <v>3122</v>
       </c>
-      <c r="C1573" s="4" t="s">
+      <c r="C1572" s="4" t="s">
         <v>3123</v>
       </c>
-      <c r="D1573" s="4" t="s">
+      <c r="D1572" s="4" t="s">
         <v>3123</v>
       </c>
-      <c r="E1573" s="4" t="s">
+      <c r="E1572" s="4" t="s">
         <v>3123</v>
       </c>
-      <c r="F1573" s="4" t="s">
+      <c r="F1572" s="4" t="s">
         <v>3123</v>
       </c>
-      <c r="G1573" s="5">
+      <c r="G1572" s="5">
         <f>833.95*1.04</f>
         <v>867.308</v>
       </c>
-      <c r="I1573" s="9">
-        <f t="shared" si="120"/>
+      <c r="I1572" s="9">
+        <f>G1572*0.47</f>
         <v>407.63476</v>
       </c>
-      <c r="J1573" s="9">
-        <f t="shared" si="121"/>
+      <c r="J1572" s="9">
+        <f>G1572*0.5</f>
         <v>433.654</v>
       </c>
-      <c r="K1573" s="9">
-        <f t="shared" si="122"/>
+      <c r="K1572" s="9">
+        <f>G1572*0.55</f>
         <v>477.0194</v>
       </c>
-      <c r="L1573" s="9">
-        <f t="shared" si="123"/>
+      <c r="L1572" s="9">
+        <f>G1572*0.7</f>
         <v>607.1156</v>
       </c>
-      <c r="M1573" s="9">
-        <f t="shared" si="124"/>
+      <c r="M1572" s="9">
+        <f>G1572*0.85</f>
         <v>737.2118</v>
       </c>
     </row>
-    <row r="1574" ht="27" spans="2:13">
-      <c r="B1574" s="11" t="s">
+    <row r="1573" ht="27" spans="2:13">
+      <c r="B1573" s="11" t="s">
         <v>3124</v>
       </c>
-      <c r="C1574" s="12" t="s">
+      <c r="C1573" s="12" t="s">
         <v>3125</v>
       </c>
-      <c r="D1574" s="12" t="s">
+      <c r="D1573" s="12" t="s">
         <v>3125</v>
       </c>
-      <c r="E1574" s="12" t="s">
+      <c r="E1573" s="12" t="s">
         <v>3125</v>
       </c>
-      <c r="F1574" s="12" t="s">
+      <c r="F1573" s="12" t="s">
         <v>3125</v>
       </c>
-      <c r="G1574" s="5">
+      <c r="G1573" s="5">
         <f>5087.4*1.04</f>
         <v>5290.896</v>
       </c>
-      <c r="I1574" s="9">
-        <f t="shared" si="120"/>
+      <c r="I1573" s="9">
+        <f>G1573*0.47</f>
         <v>2486.72112</v>
       </c>
-      <c r="J1574" s="9">
-        <f t="shared" si="121"/>
+      <c r="J1573" s="9">
+        <f>G1573*0.5</f>
         <v>2645.448</v>
       </c>
-      <c r="K1574" s="9">
-        <f t="shared" si="122"/>
+      <c r="K1573" s="9">
+        <f>G1573*0.55</f>
         <v>2909.9928</v>
       </c>
-      <c r="L1574" s="9">
-        <f t="shared" si="123"/>
+      <c r="L1573" s="9">
+        <f>G1573*0.7</f>
         <v>3703.6272</v>
       </c>
-      <c r="M1574" s="9">
-        <f t="shared" si="124"/>
+      <c r="M1573" s="9">
+        <f>G1573*0.85</f>
         <v>4497.2616</v>
       </c>
     </row>
